--- a/src/main/resources/complaince_rules_banner.xlsx
+++ b/src/main/resources/complaince_rules_banner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IAB Project\boot-drools-decision\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC0B073-83FC-4A44-B028-CF801A025203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EC2413-0872-492E-9377-B6F580583FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="385">
   <si>
     <t>RuleSet</t>
   </si>
@@ -902,69 +902,6 @@
     <t>Check if declaredFriendlyObstructions doesnt exists</t>
   </si>
   <si>
-    <t>Check if geometryxNik exists</t>
-  </si>
-  <si>
-    <t>Check if geometryxNik doesnt exists</t>
-  </si>
-  <si>
-    <t>Check if geometryyNik exists</t>
-  </si>
-  <si>
-    <t>Check if geometryyNik doesnt exists</t>
-  </si>
-  <si>
-    <t>Check if percentageInViewNik exists</t>
-  </si>
-  <si>
-    <t>Check if percentageInViewNik doesnt exists</t>
-  </si>
-  <si>
-    <t>Check if adSessionIdImpression exists</t>
-  </si>
-  <si>
-    <t>Check if adSessionIdImpression doesnt exists</t>
-  </si>
-  <si>
-    <t>adSessionIdImpression!=$1</t>
-  </si>
-  <si>
-    <t>adSessionIdImpression==$1</t>
-  </si>
-  <si>
-    <t>adSessionIdImpression</t>
-  </si>
-  <si>
-    <t>GeometryxImpression!=$1</t>
-  </si>
-  <si>
-    <t>GeometryxImpression==$1</t>
-  </si>
-  <si>
-    <t>geometryxImpression</t>
-  </si>
-  <si>
-    <t>GeometryyImpression!=$1</t>
-  </si>
-  <si>
-    <t>GeometryyImpression==$1</t>
-  </si>
-  <si>
-    <t>geometryyImpression</t>
-  </si>
-  <si>
-    <t>GeometryyImpression</t>
-  </si>
-  <si>
-    <t>PercentageInViewImpression!=$1</t>
-  </si>
-  <si>
-    <t>PercentageInViewImpression==$1</t>
-  </si>
-  <si>
-    <t>percentageInViewImpression</t>
-  </si>
-  <si>
     <t>serviceVersion==$1</t>
   </si>
   <si>
@@ -978,9 +915,6 @@
   </si>
   <si>
     <t>System.out.println("CreativeType Action:"+$param); loadedResult.setCreativeType($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("AdSessionIdExists Action:"+$param); impressionResult.setAdSessionId($param);</t>
   </si>
   <si>
     <t>System.out.println("MediaTypeExists Action:"+$param); impressionResult.setMediaType($param);</t>
@@ -1332,6 +1266,57 @@
   </si>
   <si>
     <t>Ruletable Session Finish</t>
+  </si>
+  <si>
+    <t>"exists!!!"</t>
+  </si>
+  <si>
+    <t>System.out.println("setAdSessionIdExists Action:"+$param); impressionResult.setAdSessionId($param);</t>
+  </si>
+  <si>
+    <t>Check adSessionId exists</t>
+  </si>
+  <si>
+    <t>Check adSessionId doesnt exists</t>
+  </si>
+  <si>
+    <t>PercentageInView!=$1</t>
+  </si>
+  <si>
+    <t>PercentageInView==$1</t>
+  </si>
+  <si>
+    <t>Check if geometryxImpression exists</t>
+  </si>
+  <si>
+    <t>Check if geometryxImpression doesnt exists</t>
+  </si>
+  <si>
+    <t>Check if geometryyImpression exists</t>
+  </si>
+  <si>
+    <t>Check if geometryyImpression doesnt exists</t>
+  </si>
+  <si>
+    <t>Check if percentageInViewImpression exists</t>
+  </si>
+  <si>
+    <t>Check if percentageInViewImpression doesnt exists</t>
+  </si>
+  <si>
+    <t>Geometryx!=$1</t>
+  </si>
+  <si>
+    <t>Geometryx==$1</t>
+  </si>
+  <si>
+    <t>Geometryy!=$1</t>
+  </si>
+  <si>
+    <t>Geometryy==$1</t>
+  </si>
+  <si>
+    <t>Geometryy</t>
   </si>
 </sst>
 </file>
@@ -1648,24 +1633,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1683,15 +1650,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1712,6 +1670,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1996,32 +1981,32 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BW991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="AR146" workbookViewId="0">
+      <selection activeCell="BE154" sqref="BE154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="22" customWidth="1"/>
-    <col min="2" max="53" width="8.7265625" style="22"/>
-    <col min="54" max="54" width="17.26953125" style="22" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.26953125" style="22" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.7265625" style="22"/>
-    <col min="57" max="57" width="14.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="8.7265625" style="22"/>
-    <col min="62" max="62" width="17.1796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="63" max="66" width="8.7265625" style="22"/>
-    <col min="67" max="67" width="19.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="20.1796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="21.1796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="19.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="18" style="22" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="16.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="20.54296875" style="22" bestFit="1" customWidth="1"/>
-    <col min="75" max="16384" width="8.7265625" style="22"/>
+    <col min="1" max="1" width="17.90625" style="16" customWidth="1"/>
+    <col min="2" max="53" width="8.7265625" style="16"/>
+    <col min="54" max="54" width="17.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.7265625" style="16"/>
+    <col min="57" max="57" width="14.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="8.7265625" style="16"/>
+    <col min="62" max="62" width="17.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="63" max="66" width="8.7265625" style="16"/>
+    <col min="67" max="67" width="19.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="21.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="19.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18" style="16" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="16.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="20.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="75" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -2031,14 +2016,14 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -2051,14 +2036,14 @@
       <c r="B2" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -2071,14 +2056,14 @@
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -2126,59 +2111,59 @@
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="35" t="s">
+      <c r="N6" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="34"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -2214,16 +2199,16 @@
         <v>19</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="20.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2312,7 +2297,7 @@
         <v>28</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -2361,7 +2346,7 @@
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -2410,7 +2395,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="N15" s="9"/>
     </row>
@@ -2459,7 +2444,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2479,8 +2464,8 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>389</v>
+      <c r="A19" s="19" t="s">
+        <v>367</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2500,16 +2485,16 @@
       <c r="A20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="26" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="9"/>
@@ -2524,11 +2509,11 @@
     </row>
     <row r="21" spans="1:74" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -2552,7 +2537,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -2626,7 +2611,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -2655,8 +2640,8 @@
       <c r="N26" s="9"/>
     </row>
     <row r="27" spans="1:74" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
-        <v>347</v>
+      <c r="A27" s="28" t="s">
+        <v>325</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2728,282 +2713,282 @@
       <c r="BQ27" s="12"/>
     </row>
     <row r="28" spans="1:74" ht="21.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="J28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="L28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="26" t="s">
+      <c r="M28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="N28" s="26" t="s">
+      <c r="N28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="26" t="s">
+      <c r="O28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="P28" s="26" t="s">
+      <c r="P28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="Q28" s="26" t="s">
+      <c r="Q28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="R28" s="26" t="s">
+      <c r="R28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="S28" s="26" t="s">
+      <c r="S28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="T28" s="26" t="s">
+      <c r="T28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="U28" s="26" t="s">
+      <c r="U28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="V28" s="26" t="s">
+      <c r="V28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="W28" s="26" t="s">
+      <c r="W28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="X28" s="26" t="s">
+      <c r="X28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="Y28" s="26" t="s">
+      <c r="Y28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="Z28" s="26" t="s">
+      <c r="Z28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AA28" s="26" t="s">
+      <c r="AA28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AB28" s="26" t="s">
+      <c r="AB28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AC28" s="26" t="s">
+      <c r="AC28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AD28" s="26" t="s">
+      <c r="AD28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AE28" s="26" t="s">
+      <c r="AE28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AF28" s="26" t="s">
+      <c r="AF28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AG28" s="26" t="s">
+      <c r="AG28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AH28" s="26" t="s">
+      <c r="AH28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AI28" s="26" t="s">
+      <c r="AI28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AJ28" s="26" t="s">
+      <c r="AJ28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AK28" s="26" t="s">
+      <c r="AK28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AL28" s="26" t="s">
+      <c r="AL28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AM28" s="26" t="s">
+      <c r="AM28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AN28" s="26" t="s">
+      <c r="AN28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AO28" s="26" t="s">
+      <c r="AO28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AP28" s="26" t="s">
+      <c r="AP28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AQ28" s="26" t="s">
+      <c r="AQ28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AR28" s="26" t="s">
+      <c r="AR28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AS28" s="26" t="s">
+      <c r="AS28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AT28" s="26" t="s">
+      <c r="AT28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AU28" s="26" t="s">
+      <c r="AU28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AV28" s="26" t="s">
+      <c r="AV28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AW28" s="26" t="s">
+      <c r="AW28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AX28" s="26" t="s">
+      <c r="AX28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AY28" s="26" t="s">
+      <c r="AY28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AZ28" s="26" t="s">
+      <c r="AZ28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="BA28" s="26" t="s">
+      <c r="BA28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="BB28" s="26" t="s">
+      <c r="BB28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="BC28" s="26" t="s">
+      <c r="BC28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="BD28" s="26" t="s">
+      <c r="BD28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="BE28" s="26" t="s">
+      <c r="BE28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="BF28" s="26" t="s">
+      <c r="BF28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="BG28" s="27" t="s">
+      <c r="BG28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="BH28" s="27" t="s">
+      <c r="BH28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="BI28" s="27" t="s">
+      <c r="BI28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="BJ28" s="27" t="s">
+      <c r="BJ28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="BK28" s="27" t="s">
+      <c r="BK28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="BL28" s="27" t="s">
+      <c r="BL28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="BM28" s="27" t="s">
+      <c r="BM28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="BN28" s="27" t="s">
+      <c r="BN28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="BO28" s="27" t="s">
+      <c r="BO28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="BP28" s="27" t="s">
+      <c r="BP28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="BQ28" s="27" t="s">
+      <c r="BQ28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="BR28" s="27" t="s">
+      <c r="BR28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="BS28" s="27" t="s">
+      <c r="BS28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="BT28" s="27" t="s">
+      <c r="BT28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="BU28" s="27" t="s">
+      <c r="BU28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="BV28" s="27" t="s">
+      <c r="BV28" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="29"/>
-      <c r="AK29" s="29"/>
-      <c r="AL29" s="29"/>
-      <c r="AM29" s="29"/>
-      <c r="AN29" s="29"/>
-      <c r="AO29" s="29"/>
-      <c r="AP29" s="29"/>
-      <c r="AQ29" s="29"/>
-      <c r="AR29" s="29"/>
-      <c r="AS29" s="29"/>
-      <c r="AT29" s="29"/>
-      <c r="AU29" s="29"/>
-      <c r="AV29" s="29"/>
-      <c r="AW29" s="29"/>
-      <c r="AX29" s="30"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="36"/>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="36"/>
+      <c r="AQ29" s="36"/>
+      <c r="AR29" s="36"/>
+      <c r="AS29" s="36"/>
+      <c r="AT29" s="36"/>
+      <c r="AU29" s="36"/>
+      <c r="AV29" s="36"/>
+      <c r="AW29" s="36"/>
+      <c r="AX29" s="37"/>
       <c r="AY29" s="11"/>
       <c r="AZ29" s="11"/>
       <c r="BA29" s="11"/>
@@ -3012,7 +2997,7 @@
       <c r="BD29" s="12"/>
       <c r="BE29" s="12"/>
       <c r="BF29" s="12"/>
-      <c r="BG29" s="31"/>
+      <c r="BG29" s="22"/>
       <c r="BH29" s="12"/>
       <c r="BI29" s="12"/>
       <c r="BJ29" s="12"/>
@@ -3020,7 +3005,7 @@
       <c r="BL29" s="12"/>
       <c r="BM29" s="12"/>
       <c r="BN29" s="12"/>
-      <c r="BO29" s="31"/>
+      <c r="BO29" s="22"/>
       <c r="BP29" s="12"/>
       <c r="BQ29" s="12"/>
       <c r="BR29" s="12"/>
@@ -3062,10 +3047,10 @@
         <v>234</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="N30" s="11" t="s">
         <v>46</v>
@@ -3137,7 +3122,7 @@
         <v>67</v>
       </c>
       <c r="AK30" s="11" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="AL30" s="11" t="s">
         <v>142</v>
@@ -3179,76 +3164,76 @@
         <v>19</v>
       </c>
       <c r="AY30" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="AZ30" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="BA30" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="BB30" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="BC30" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="BD30" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="BE30" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="BF30" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="BG30" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="BH30" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="BI30" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="BJ30" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="BK30" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="BL30" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="BM30" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="BN30" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="BO30" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="BP30" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="BQ30" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="BR30" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="BS30" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="BT30" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="BU30" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="AZ30" s="11" t="s">
+      <c r="BV30" s="22" t="s">
         <v>350</v>
-      </c>
-      <c r="BA30" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="BB30" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="BC30" s="31" t="s">
-        <v>353</v>
-      </c>
-      <c r="BD30" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="BE30" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="BF30" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="BG30" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="BH30" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="BI30" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="BJ30" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="BK30" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="BL30" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="BM30" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="BN30" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="BO30" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="BP30" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="BQ30" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="BR30" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="BS30" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="BT30" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="BU30" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="BV30" s="31" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:74" ht="20.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3479,7 +3464,7 @@
       <c r="A32" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="23">
         <v>10</v>
       </c>
       <c r="C32" s="11"/>
@@ -3559,7 +3544,7 @@
         <v>89</v>
       </c>
       <c r="B33" s="11"/>
-      <c r="C33" s="32">
+      <c r="C33" s="23">
         <v>0</v>
       </c>
       <c r="D33" s="11"/>
@@ -3612,7 +3597,7 @@
         <v>88</v>
       </c>
       <c r="AY33" s="11" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AZ33" s="11"/>
       <c r="BA33" s="11"/>
@@ -3638,7 +3623,7 @@
         <v>90</v>
       </c>
       <c r="B34" s="11"/>
-      <c r="C34" s="32"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="11" t="s">
         <v>91</v>
       </c>
@@ -3700,7 +3685,7 @@
       <c r="BD34" s="12"/>
       <c r="BE34" s="12"/>
       <c r="BF34" s="12"/>
-      <c r="BG34" s="31"/>
+      <c r="BG34" s="22"/>
       <c r="BH34" s="12"/>
       <c r="BI34" s="12"/>
       <c r="BJ34" s="12"/>
@@ -3716,7 +3701,7 @@
       <c r="A35" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12" t="s">
@@ -3771,7 +3756,7 @@
       </c>
       <c r="AY35" s="11"/>
       <c r="AZ35" s="11" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BA35" s="11"/>
       <c r="BB35" s="12"/>
@@ -3795,7 +3780,7 @@
       <c r="A36" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="32"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -3874,7 +3859,7 @@
       <c r="A37" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="32"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -3930,7 +3915,7 @@
       <c r="AY37" s="11"/>
       <c r="AZ37" s="11"/>
       <c r="BA37" s="11" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BB37" s="12"/>
       <c r="BC37" s="12"/>
@@ -3953,7 +3938,7 @@
       <c r="A38" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -4089,7 +4074,7 @@
       <c r="AZ39" s="12"/>
       <c r="BA39" s="12"/>
       <c r="BB39" s="12" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BC39" s="12"/>
       <c r="BD39" s="12"/>
@@ -4248,7 +4233,7 @@
       <c r="BA41" s="12"/>
       <c r="BB41" s="12"/>
       <c r="BC41" s="12" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BD41" s="12"/>
       <c r="BE41" s="12"/>
@@ -4327,7 +4312,7 @@
       <c r="BA42" s="12"/>
       <c r="BB42" s="12"/>
       <c r="BC42" s="12"/>
-      <c r="BD42" s="31" t="s">
+      <c r="BD42" s="22" t="s">
         <v>95</v>
       </c>
       <c r="BE42" s="12"/>
@@ -4406,8 +4391,8 @@
       <c r="BA43" s="12"/>
       <c r="BB43" s="12"/>
       <c r="BC43" s="12"/>
-      <c r="BD43" s="31" t="s">
-        <v>388</v>
+      <c r="BD43" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="BE43" s="12"/>
       <c r="BF43" s="12"/>
@@ -4566,7 +4551,7 @@
       <c r="BC45" s="12"/>
       <c r="BD45" s="12"/>
       <c r="BE45" s="12" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BF45" s="12"/>
       <c r="BG45" s="12"/>
@@ -4725,7 +4710,7 @@
       <c r="BD47" s="12"/>
       <c r="BE47" s="12"/>
       <c r="BF47" s="12" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BG47" s="12"/>
       <c r="BH47" s="12"/>
@@ -4884,7 +4869,7 @@
       <c r="BE49" s="12"/>
       <c r="BF49" s="12"/>
       <c r="BG49" s="12" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BH49" s="12"/>
       <c r="BI49" s="12"/>
@@ -5043,7 +5028,7 @@
       <c r="BF51" s="12"/>
       <c r="BG51" s="12"/>
       <c r="BH51" s="12" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BI51" s="12"/>
       <c r="BJ51" s="12"/>
@@ -5201,8 +5186,8 @@
       <c r="BF53" s="12"/>
       <c r="BG53" s="12"/>
       <c r="BH53" s="12"/>
-      <c r="BI53" s="31" t="s">
-        <v>388</v>
+      <c r="BI53" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="BJ53" s="12"/>
       <c r="BK53" s="12"/>
@@ -5361,7 +5346,7 @@
       <c r="BH55" s="12"/>
       <c r="BI55" s="12"/>
       <c r="BJ55" s="12" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BK55" s="12"/>
       <c r="BL55" s="12"/>
@@ -5441,7 +5426,7 @@
       <c r="BH56" s="12"/>
       <c r="BI56" s="12"/>
       <c r="BJ56" s="12"/>
-      <c r="BK56" s="31" t="s">
+      <c r="BK56" s="22" t="s">
         <v>95</v>
       </c>
       <c r="BL56" s="12"/>
@@ -5521,8 +5506,8 @@
       <c r="BH57" s="12"/>
       <c r="BI57" s="12"/>
       <c r="BJ57" s="12"/>
-      <c r="BK57" s="31" t="s">
-        <v>388</v>
+      <c r="BK57" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="BL57" s="12"/>
       <c r="BM57" s="12"/>
@@ -5601,7 +5586,7 @@
       <c r="BI58" s="12"/>
       <c r="BJ58" s="12"/>
       <c r="BK58" s="12"/>
-      <c r="BL58" s="31" t="s">
+      <c r="BL58" s="22" t="s">
         <v>95</v>
       </c>
       <c r="BM58" s="12"/>
@@ -5680,8 +5665,8 @@
       <c r="BI59" s="12"/>
       <c r="BJ59" s="12"/>
       <c r="BK59" s="12"/>
-      <c r="BL59" s="31" t="s">
-        <v>388</v>
+      <c r="BL59" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="BM59" s="12"/>
       <c r="BN59" s="12"/>
@@ -5839,8 +5824,8 @@
       <c r="BJ61" s="12"/>
       <c r="BK61" s="12"/>
       <c r="BL61" s="12"/>
-      <c r="BM61" s="31" t="s">
-        <v>388</v>
+      <c r="BM61" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="BN61" s="12"/>
       <c r="BO61" s="12"/>
@@ -5919,7 +5904,7 @@
       <c r="BK62" s="12"/>
       <c r="BL62" s="12"/>
       <c r="BM62" s="12"/>
-      <c r="BN62" s="31" t="s">
+      <c r="BN62" s="22" t="s">
         <v>95</v>
       </c>
       <c r="BO62" s="12"/>
@@ -5998,8 +5983,8 @@
       <c r="BK63" s="12"/>
       <c r="BL63" s="12"/>
       <c r="BM63" s="12"/>
-      <c r="BN63" s="31" t="s">
-        <v>388</v>
+      <c r="BN63" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="BO63" s="12"/>
       <c r="BP63" s="12"/>
@@ -6158,7 +6143,7 @@
       <c r="BM65" s="12"/>
       <c r="BN65" s="12"/>
       <c r="BO65" s="12" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BP65" s="12"/>
       <c r="BQ65" s="12"/>
@@ -6317,7 +6302,7 @@
       <c r="BN67" s="12"/>
       <c r="BO67" s="12"/>
       <c r="BP67" s="12" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BQ67" s="12"/>
     </row>
@@ -6482,7 +6467,7 @@
       <c r="BO69" s="12"/>
       <c r="BP69" s="12"/>
       <c r="BQ69" s="12" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BR69" s="12"/>
       <c r="BS69" s="12"/>
@@ -6653,7 +6638,7 @@
       <c r="BP71" s="12"/>
       <c r="BQ71" s="12"/>
       <c r="BR71" s="12" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BS71" s="12"/>
       <c r="BT71" s="12"/>
@@ -6824,7 +6809,7 @@
       <c r="BQ73" s="12"/>
       <c r="BR73" s="12"/>
       <c r="BS73" s="12" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BT73" s="12"/>
       <c r="BU73" s="12"/>
@@ -6995,7 +6980,7 @@
       <c r="BR75" s="12"/>
       <c r="BS75" s="12"/>
       <c r="BT75" s="12" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BU75" s="12"/>
       <c r="BV75" s="12"/>
@@ -7166,7 +7151,7 @@
       <c r="BS77" s="12"/>
       <c r="BT77" s="12"/>
       <c r="BU77" s="12" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BV77" s="12"/>
       <c r="BW77" s="12"/>
@@ -7337,7 +7322,7 @@
       <c r="BT79" s="12"/>
       <c r="BU79" s="12"/>
       <c r="BV79" s="12" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BW79" s="12"/>
     </row>
@@ -7358,8 +7343,8 @@
       <c r="N80" s="9"/>
     </row>
     <row r="81" spans="1:47" ht="21.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="36" t="s">
-        <v>346</v>
+      <c r="A81" s="27" t="s">
+        <v>324</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -7412,180 +7397,180 @@
       <c r="A82" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="35" t="s">
+      <c r="D82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="35" t="s">
+      <c r="E82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F82" s="35" t="s">
+      <c r="F82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="35" t="s">
+      <c r="G82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="35" t="s">
+      <c r="H82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I82" s="35" t="s">
+      <c r="I82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J82" s="35" t="s">
+      <c r="J82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K82" s="35" t="s">
+      <c r="K82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L82" s="35" t="s">
+      <c r="L82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M82" s="35" t="s">
+      <c r="M82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N82" s="35" t="s">
+      <c r="N82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O82" s="35" t="s">
+      <c r="O82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="P82" s="35" t="s">
+      <c r="P82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Q82" s="35" t="s">
+      <c r="Q82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="R82" s="35" t="s">
+      <c r="R82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="S82" s="35" t="s">
+      <c r="S82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="T82" s="35" t="s">
+      <c r="T82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U82" s="35" t="s">
+      <c r="U82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="V82" s="35" t="s">
+      <c r="V82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="W82" s="35" t="s">
+      <c r="W82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="X82" s="35" t="s">
+      <c r="X82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Y82" s="35" t="s">
+      <c r="Y82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Z82" s="35" t="s">
+      <c r="Z82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AA82" s="35" t="s">
+      <c r="AA82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AB82" s="35" t="s">
+      <c r="AB82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AC82" s="35" t="s">
+      <c r="AC82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AD82" s="35" t="s">
+      <c r="AD82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AE82" s="35" t="s">
+      <c r="AE82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AF82" s="35" t="s">
+      <c r="AF82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AG82" s="35" t="s">
+      <c r="AG82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AH82" s="35" t="s">
+      <c r="AH82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AI82" s="35" t="s">
+      <c r="AI82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AJ82" s="35" t="s">
+      <c r="AJ82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AK82" s="35" t="s">
+      <c r="AK82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AL82" s="35" t="s">
+      <c r="AL82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AM82" s="35" t="s">
+      <c r="AM82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AN82" s="35" t="s">
+      <c r="AN82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AO82" s="35" t="s">
+      <c r="AO82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AP82" s="35" t="s">
+      <c r="AP82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AQ82" s="35" t="s">
+      <c r="AQ82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AR82" s="35" t="s">
+      <c r="AR82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AS82" s="35" t="s">
+      <c r="AS82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AT82" s="35" t="s">
+      <c r="AT82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AU82" s="35" t="s">
+      <c r="AU82" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:47" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="16"/>
-      <c r="T83" s="16"/>
-      <c r="U83" s="16"/>
-      <c r="V83" s="16"/>
-      <c r="W83" s="16"/>
-      <c r="X83" s="16"/>
-      <c r="Y83" s="16"/>
-      <c r="Z83" s="16"/>
-      <c r="AA83" s="16"/>
-      <c r="AB83" s="16"/>
-      <c r="AC83" s="16"/>
-      <c r="AD83" s="16"/>
-      <c r="AE83" s="16"/>
-      <c r="AF83" s="17"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="30"/>
+      <c r="R83" s="30"/>
+      <c r="S83" s="30"/>
+      <c r="T83" s="30"/>
+      <c r="U83" s="30"/>
+      <c r="V83" s="30"/>
+      <c r="W83" s="30"/>
+      <c r="X83" s="30"/>
+      <c r="Y83" s="30"/>
+      <c r="Z83" s="30"/>
+      <c r="AA83" s="30"/>
+      <c r="AB83" s="30"/>
+      <c r="AC83" s="30"/>
+      <c r="AD83" s="30"/>
+      <c r="AE83" s="30"/>
+      <c r="AF83" s="31"/>
       <c r="AG83" s="13"/>
       <c r="AH83" s="9"/>
       <c r="AI83" s="9"/>
@@ -7617,10 +7602,10 @@
         <v>162</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>163</v>
@@ -7665,10 +7650,10 @@
         <v>176</v>
       </c>
       <c r="V84" s="9" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="W84" s="9" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="X84" s="9" t="s">
         <v>177</v>
@@ -7676,10 +7661,10 @@
       <c r="Y84" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="Z84" s="33" t="s">
+      <c r="Z84" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="AA84" s="33" t="s">
+      <c r="AA84" s="24" t="s">
         <v>180</v>
       </c>
       <c r="AB84" s="9" t="s">
@@ -7698,49 +7683,49 @@
         <v>19</v>
       </c>
       <c r="AG84" s="9" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="AH84" s="9" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="AI84" s="9" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="AJ84" s="9" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="AK84" s="9" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="AL84" s="9" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="AM84" s="9" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="AN84" s="9" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="AO84" s="9" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="AP84" s="9" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="AQ84" s="9" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="AR84" s="9" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="AS84" s="9" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="AT84" s="9" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="AU84" s="9" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" spans="1:47" ht="30.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7819,10 +7804,10 @@
       <c r="Y85" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="Z85" s="34" t="s">
+      <c r="Z85" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="AA85" s="34" t="s">
+      <c r="AA85" s="25" t="s">
         <v>196</v>
       </c>
       <c r="AB85" s="8" t="s">
@@ -7912,7 +7897,7 @@
       <c r="S86" s="9"/>
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
-      <c r="V86" s="35"/>
+      <c r="V86" s="26"/>
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
@@ -7983,7 +7968,7 @@
         <v>200</v>
       </c>
       <c r="AG87" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AH87" s="9"/>
       <c r="AI87" s="9"/>
@@ -8098,7 +8083,7 @@
       </c>
       <c r="AG89" s="9"/>
       <c r="AH89" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AI89" s="9"/>
       <c r="AJ89" s="9"/>
@@ -8213,7 +8198,7 @@
       <c r="AG91" s="9"/>
       <c r="AH91" s="9"/>
       <c r="AI91" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AJ91" s="9"/>
       <c r="AK91" s="9"/>
@@ -8328,7 +8313,7 @@
       <c r="AH93" s="9"/>
       <c r="AI93" s="9"/>
       <c r="AJ93" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AK93" s="9"/>
       <c r="AL93" s="9"/>
@@ -8344,7 +8329,7 @@
     </row>
     <row r="94" spans="1:47" ht="20.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -8401,7 +8386,7 @@
     </row>
     <row r="95" spans="1:47" ht="20.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -8443,7 +8428,7 @@
       <c r="AI95" s="9"/>
       <c r="AJ95" s="9"/>
       <c r="AK95" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AL95" s="9"/>
       <c r="AM95" s="9"/>
@@ -8558,7 +8543,7 @@
       <c r="AJ97" s="9"/>
       <c r="AK97" s="9"/>
       <c r="AL97" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AM97" s="9"/>
       <c r="AN97" s="9"/>
@@ -8572,7 +8557,7 @@
     </row>
     <row r="98" spans="1:47" ht="30.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -8629,7 +8614,7 @@
     </row>
     <row r="99" spans="1:47" ht="20.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -8673,7 +8658,7 @@
       <c r="AK99" s="9"/>
       <c r="AL99" s="9"/>
       <c r="AM99" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AN99" s="9"/>
       <c r="AO99" s="9"/>
@@ -8686,7 +8671,7 @@
     </row>
     <row r="100" spans="1:47" ht="20.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -8743,7 +8728,7 @@
     </row>
     <row r="101" spans="1:47" ht="20.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -8788,7 +8773,7 @@
       <c r="AL101" s="9"/>
       <c r="AM101" s="9"/>
       <c r="AN101" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AO101" s="9"/>
       <c r="AP101" s="9"/>
@@ -8903,7 +8888,7 @@
       <c r="AM103" s="9"/>
       <c r="AN103" s="9"/>
       <c r="AO103" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AP103" s="9"/>
       <c r="AQ103" s="9"/>
@@ -9018,7 +9003,7 @@
       <c r="AN105" s="9"/>
       <c r="AO105" s="9"/>
       <c r="AP105" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AQ105" s="9"/>
       <c r="AR105" s="9"/>
@@ -9133,7 +9118,7 @@
       <c r="AO107" s="9"/>
       <c r="AP107" s="9"/>
       <c r="AQ107" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AR107" s="9"/>
       <c r="AS107" s="9"/>
@@ -9248,7 +9233,7 @@
       <c r="AP109" s="9"/>
       <c r="AQ109" s="9"/>
       <c r="AR109" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AS109" s="9"/>
       <c r="AT109" s="9"/>
@@ -9363,7 +9348,7 @@
       <c r="AQ111" s="9"/>
       <c r="AR111" s="9"/>
       <c r="AS111" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AT111" s="9"/>
       <c r="AU111" s="9"/>
@@ -9478,7 +9463,7 @@
       <c r="AR113" s="9"/>
       <c r="AS113" s="9"/>
       <c r="AT113" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AU113" s="9"/>
     </row>
@@ -9593,7 +9578,7 @@
       <c r="AS115" s="9"/>
       <c r="AT115" s="9"/>
       <c r="AU115" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="116" spans="1:68" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9613,8 +9598,8 @@
       <c r="N116" s="9"/>
     </row>
     <row r="117" spans="1:68" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="36" t="s">
-        <v>348</v>
+      <c r="A117" s="27" t="s">
+        <v>326</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -9679,224 +9664,224 @@
       <c r="A118" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B118" s="35" t="s">
+      <c r="B118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="35" t="s">
+      <c r="C118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="35" t="s">
+      <c r="D118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="35" t="s">
+      <c r="E118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F118" s="35" t="s">
+      <c r="F118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G118" s="35" t="s">
+      <c r="G118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H118" s="35" t="s">
+      <c r="H118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I118" s="35" t="s">
+      <c r="I118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J118" s="35" t="s">
+      <c r="J118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K118" s="35" t="s">
+      <c r="K118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L118" s="35" t="s">
+      <c r="L118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M118" s="35" t="s">
+      <c r="M118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N118" s="35" t="s">
+      <c r="N118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O118" s="35" t="s">
+      <c r="O118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="P118" s="35" t="s">
+      <c r="P118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Q118" s="35" t="s">
+      <c r="Q118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="R118" s="35" t="s">
+      <c r="R118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="S118" s="35" t="s">
+      <c r="S118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="T118" s="35" t="s">
+      <c r="T118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U118" s="35" t="s">
+      <c r="U118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="V118" s="35" t="s">
+      <c r="V118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="W118" s="35" t="s">
+      <c r="W118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="X118" s="35" t="s">
+      <c r="X118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Y118" s="35" t="s">
+      <c r="Y118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Z118" s="35" t="s">
+      <c r="Z118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AA118" s="35" t="s">
+      <c r="AA118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AB118" s="35" t="s">
+      <c r="AB118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AC118" s="35" t="s">
+      <c r="AC118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AD118" s="35" t="s">
+      <c r="AD118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AE118" s="35" t="s">
+      <c r="AE118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AF118" s="35" t="s">
+      <c r="AF118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AG118" s="35" t="s">
+      <c r="AG118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AH118" s="35" t="s">
+      <c r="AH118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AI118" s="35" t="s">
+      <c r="AI118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AJ118" s="35" t="s">
+      <c r="AJ118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AK118" s="35" t="s">
+      <c r="AK118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AL118" s="35" t="s">
+      <c r="AL118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AM118" s="35" t="s">
+      <c r="AM118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AN118" s="35" t="s">
+      <c r="AN118" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AO118" s="35" t="s">
+      <c r="AO118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AP118" s="35" t="s">
+      <c r="AP118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AQ118" s="35" t="s">
+      <c r="AQ118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AR118" s="35" t="s">
+      <c r="AR118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AS118" s="35" t="s">
+      <c r="AS118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AT118" s="35" t="s">
+      <c r="AT118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AU118" s="35" t="s">
+      <c r="AU118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AV118" s="35" t="s">
+      <c r="AV118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AW118" s="35" t="s">
+      <c r="AW118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AX118" s="35" t="s">
+      <c r="AX118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AY118" s="35" t="s">
+      <c r="AY118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AZ118" s="35" t="s">
+      <c r="AZ118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BA118" s="35" t="s">
+      <c r="BA118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BB118" s="35" t="s">
+      <c r="BB118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BC118" s="35" t="s">
+      <c r="BC118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BD118" s="35" t="s">
+      <c r="BD118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BE118" s="35" t="s">
+      <c r="BE118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BF118" s="35" t="s">
+      <c r="BF118" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BG118" s="35" t="s">
+      <c r="BG118" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:68" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="16"/>
-      <c r="L119" s="16"/>
-      <c r="M119" s="16"/>
-      <c r="N119" s="16"/>
-      <c r="O119" s="16"/>
-      <c r="P119" s="16"/>
-      <c r="Q119" s="16"/>
-      <c r="R119" s="16"/>
-      <c r="S119" s="16"/>
-      <c r="T119" s="16"/>
-      <c r="U119" s="16"/>
-      <c r="V119" s="16"/>
-      <c r="W119" s="16"/>
-      <c r="X119" s="16"/>
-      <c r="Y119" s="16"/>
-      <c r="Z119" s="16"/>
-      <c r="AA119" s="16"/>
-      <c r="AB119" s="16"/>
-      <c r="AC119" s="16"/>
-      <c r="AD119" s="16"/>
-      <c r="AE119" s="16"/>
-      <c r="AF119" s="16"/>
-      <c r="AG119" s="16"/>
-      <c r="AH119" s="16"/>
-      <c r="AI119" s="16"/>
-      <c r="AJ119" s="16"/>
-      <c r="AK119" s="16"/>
-      <c r="AL119" s="16"/>
-      <c r="AM119" s="16"/>
-      <c r="AN119" s="17"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
+      <c r="K119" s="30"/>
+      <c r="L119" s="30"/>
+      <c r="M119" s="30"/>
+      <c r="N119" s="30"/>
+      <c r="O119" s="30"/>
+      <c r="P119" s="30"/>
+      <c r="Q119" s="30"/>
+      <c r="R119" s="30"/>
+      <c r="S119" s="30"/>
+      <c r="T119" s="30"/>
+      <c r="U119" s="30"/>
+      <c r="V119" s="30"/>
+      <c r="W119" s="30"/>
+      <c r="X119" s="30"/>
+      <c r="Y119" s="30"/>
+      <c r="Z119" s="30"/>
+      <c r="AA119" s="30"/>
+      <c r="AB119" s="30"/>
+      <c r="AC119" s="30"/>
+      <c r="AD119" s="30"/>
+      <c r="AE119" s="30"/>
+      <c r="AF119" s="30"/>
+      <c r="AG119" s="30"/>
+      <c r="AH119" s="30"/>
+      <c r="AI119" s="30"/>
+      <c r="AJ119" s="30"/>
+      <c r="AK119" s="30"/>
+      <c r="AL119" s="30"/>
+      <c r="AM119" s="30"/>
+      <c r="AN119" s="31"/>
       <c r="AO119" s="13"/>
       <c r="AP119" s="13"/>
       <c r="AQ119" s="9"/>
@@ -9917,13 +9902,13 @@
       <c r="BF119" s="9"/>
       <c r="BG119" s="9"/>
     </row>
-    <row r="120" spans="1:68" ht="130.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:68" ht="120.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="9" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>15</v>
@@ -10004,22 +9989,22 @@
         <v>180</v>
       </c>
       <c r="AD120" s="9" t="s">
-        <v>299</v>
+        <v>380</v>
       </c>
       <c r="AE120" s="9" t="s">
-        <v>300</v>
+        <v>381</v>
       </c>
       <c r="AF120" s="9" t="s">
-        <v>302</v>
+        <v>382</v>
       </c>
       <c r="AG120" s="9" t="s">
-        <v>303</v>
+        <v>383</v>
       </c>
       <c r="AH120" s="9" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="AI120" s="9" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="AJ120" s="9" t="s">
         <v>13</v>
@@ -10037,61 +10022,61 @@
         <v>19</v>
       </c>
       <c r="AO120" s="9" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="AP120" s="9" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="AQ120" s="9" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="AR120" s="9" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="AS120" s="9" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="AT120" s="9" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="AU120" s="9" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="AV120" s="9" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="AW120" s="9" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="AX120" s="9" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="AY120" s="9" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="AZ120" s="9" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="BA120" s="9" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="BB120" s="9" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="BC120" s="9" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="BD120" s="9" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="BE120" s="9" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="BF120" s="9" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="BG120" s="9" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="BI120" s="9"/>
       <c r="BJ120" s="9"/>
@@ -10107,10 +10092,10 @@
         <v>7</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>22</v>
@@ -10191,22 +10176,22 @@
         <v>255</v>
       </c>
       <c r="AD121" s="8" t="s">
-        <v>301</v>
+        <v>198</v>
       </c>
       <c r="AE121" s="8" t="s">
-        <v>301</v>
+        <v>198</v>
       </c>
       <c r="AF121" s="8" t="s">
-        <v>304</v>
+        <v>197</v>
       </c>
       <c r="AG121" s="8" t="s">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="AH121" s="8" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="AI121" s="8" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="AJ121" s="8" t="s">
         <v>21</v>
@@ -10289,9 +10274,9 @@
       <c r="BO121" s="9"/>
       <c r="BP121" s="9"/>
     </row>
-    <row r="122" spans="1:68" ht="30.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:68" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>294</v>
+        <v>370</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>27</v>
@@ -10337,7 +10322,7 @@
         <v>257</v>
       </c>
       <c r="AO122" s="9" t="s">
-        <v>95</v>
+        <v>368</v>
       </c>
       <c r="AP122" s="9"/>
       <c r="AQ122" s="9"/>
@@ -10358,9 +10343,9 @@
       <c r="BF122" s="9"/>
       <c r="BG122" s="9"/>
     </row>
-    <row r="123" spans="1:68" ht="30.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:68" ht="20.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9" t="s">
@@ -10406,7 +10391,7 @@
         <v>257</v>
       </c>
       <c r="AO123" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AP123" s="9"/>
       <c r="AQ123" s="9"/>
@@ -10545,7 +10530,7 @@
       </c>
       <c r="AO125" s="9"/>
       <c r="AP125" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AQ125" s="9"/>
       <c r="AR125" s="9"/>
@@ -10684,7 +10669,7 @@
       <c r="AO127" s="9"/>
       <c r="AP127" s="9"/>
       <c r="AQ127" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AR127" s="9"/>
       <c r="AS127" s="9"/>
@@ -10823,7 +10808,7 @@
       <c r="AP129" s="9"/>
       <c r="AQ129" s="9"/>
       <c r="AR129" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AS129" s="9"/>
       <c r="AT129" s="9"/>
@@ -10962,7 +10947,7 @@
       <c r="AQ131" s="9"/>
       <c r="AR131" s="9"/>
       <c r="AS131" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AT131" s="9"/>
       <c r="AU131" s="9"/>
@@ -11101,7 +11086,7 @@
       <c r="AR133" s="9"/>
       <c r="AS133" s="9"/>
       <c r="AT133" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AU133" s="9"/>
       <c r="AV133" s="9"/>
@@ -11240,7 +11225,7 @@
       <c r="AS135" s="9"/>
       <c r="AT135" s="9"/>
       <c r="AU135" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AV135" s="9"/>
       <c r="AW135" s="9"/>
@@ -11379,7 +11364,7 @@
       <c r="AT137" s="9"/>
       <c r="AU137" s="9"/>
       <c r="AV137" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AW137" s="9"/>
       <c r="AX137" s="9"/>
@@ -11518,7 +11503,7 @@
       <c r="AU139" s="9"/>
       <c r="AV139" s="9"/>
       <c r="AW139" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AX139" s="9"/>
       <c r="AY139" s="9"/>
@@ -11657,7 +11642,7 @@
       <c r="AV141" s="9"/>
       <c r="AW141" s="9"/>
       <c r="AX141" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AY141" s="9"/>
       <c r="AZ141" s="9"/>
@@ -11796,7 +11781,7 @@
       <c r="AW143" s="9"/>
       <c r="AX143" s="9"/>
       <c r="AY143" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AZ143" s="9"/>
       <c r="BA143" s="9"/>
@@ -11935,7 +11920,7 @@
       <c r="AX145" s="9"/>
       <c r="AY145" s="9"/>
       <c r="AZ145" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BA145" s="9"/>
       <c r="BB145" s="9"/>
@@ -12074,7 +12059,7 @@
       <c r="AY147" s="9"/>
       <c r="AZ147" s="9"/>
       <c r="BA147" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BB147" s="9"/>
       <c r="BC147" s="9"/>
@@ -12213,7 +12198,7 @@
       <c r="AZ149" s="9"/>
       <c r="BA149" s="9"/>
       <c r="BB149" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BC149" s="9"/>
       <c r="BD149" s="9"/>
@@ -12221,9 +12206,9 @@
       <c r="BF149" s="9"/>
       <c r="BG149" s="9"/>
     </row>
-    <row r="150" spans="1:59" ht="20.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:59" ht="30.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -12290,9 +12275,9 @@
       <c r="BF150" s="9"/>
       <c r="BG150" s="9"/>
     </row>
-    <row r="151" spans="1:59" ht="20.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:59" ht="30.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -12352,16 +12337,16 @@
       <c r="BA151" s="9"/>
       <c r="BB151" s="9"/>
       <c r="BC151" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BD151" s="9"/>
       <c r="BE151" s="9"/>
       <c r="BF151" s="9"/>
       <c r="BG151" s="9"/>
     </row>
-    <row r="152" spans="1:59" ht="20.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:59" ht="30.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -12428,9 +12413,9 @@
       <c r="BF152" s="9"/>
       <c r="BG152" s="9"/>
     </row>
-    <row r="153" spans="1:59" ht="20.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:59" ht="30.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>291</v>
+        <v>377</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -12491,7 +12476,7 @@
       <c r="BB153" s="9"/>
       <c r="BC153" s="9"/>
       <c r="BD153" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BE153" s="9"/>
       <c r="BF153" s="9"/>
@@ -12499,7 +12484,7 @@
     </row>
     <row r="154" spans="1:59" ht="30.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
-        <v>292</v>
+        <v>378</v>
       </c>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -12568,7 +12553,7 @@
     </row>
     <row r="155" spans="1:59" ht="30.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>293</v>
+        <v>379</v>
       </c>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -12630,7 +12615,7 @@
       <c r="BC155" s="9"/>
       <c r="BD155" s="9"/>
       <c r="BE155" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BF155" s="9"/>
       <c r="BG155" s="9"/>
@@ -12769,7 +12754,7 @@
       <c r="BD157" s="9"/>
       <c r="BE157" s="9"/>
       <c r="BF157" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BG157" s="9"/>
     </row>
@@ -12842,7 +12827,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="159" spans="1:59" ht="20.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:59" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>287</v>
       </c>
@@ -12908,7 +12893,7 @@
       <c r="BE159" s="9"/>
       <c r="BF159" s="9"/>
       <c r="BG159" s="9" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="160" spans="1:59" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
